--- a/Excel2FlatBuffers/ExcelTable/DTUIWindow.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/DTUIWindow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BoxBoxPro\Excel2FlatBuffers\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityProject\BoxBoxPro\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93763DC1-5D96-4045-870B-B1E0B41BC984}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DBF4CA-3BD5-49F4-97E0-0B71EFA4C9BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTUIWindow" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>skip</t>
   </si>
@@ -214,12 +214,6 @@
     <t>Login/Prefabs/UILogin/UILoginMainForm</t>
   </si>
   <si>
-    <t>UILobbyForm</t>
-  </si>
-  <si>
-    <t>Lobby/Prefabs/UILobby/UILobbyForm</t>
-  </si>
-  <si>
     <r>
       <t>UIForm/UICommon/UITips</t>
     </r>
@@ -273,10 +267,6 @@
       </rPr>
       <t>Form</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIForm/UILobby/UILobbyForm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -312,7 +302,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LoginWindow</t>
+    <t>LoadingWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading/LoadingWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login/LoginWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIForm/Loading/LoadingWindow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -861,7 +867,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -882,12 +888,12 @@
         <v>19</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -908,12 +914,12 @@
         <v>22</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -934,12 +940,12 @@
         <v>24</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -960,12 +966,12 @@
         <v>26</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="7">
         <v>52</v>
@@ -986,21 +992,18 @@
         <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
-      </c>
-      <c r="B10">
-        <v>104</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,10 +1012,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1020,10 +1023,10 @@
         <v>2001</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,7 +1038,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
